--- a/Uji Coba/hasil.xlsx
+++ b/Uji Coba/hasil.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="49">
   <si>
     <t>Testing</t>
   </si>
@@ -142,12 +142,42 @@
   <si>
     <t>Delete</t>
   </si>
+  <si>
+    <t>GET /select_all_airline_source</t>
+  </si>
+  <si>
+    <t>TLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RATA-RATA CPU </t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Perbandingan Jumlah Tabel</t>
+  </si>
+  <si>
+    <t>MB</t>
+  </si>
+  <si>
+    <t>Perbandingan Jumlah Row</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>insert</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,16 +207,28 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -283,11 +325,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -304,26 +355,48 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -382,7 +455,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -481,11 +553,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1704646384"/>
-        <c:axId val="-1704639856"/>
+        <c:axId val="728300576"/>
+        <c:axId val="728301120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1704646384"/>
+        <c:axId val="728300576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -527,7 +599,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1704639856"/>
+        <c:crossAx val="728301120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -535,7 +607,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1704639856"/>
+        <c:axId val="728301120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -586,7 +658,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1704646384"/>
+        <c:crossAx val="728300576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -649,496 +721,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$J$29</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SQL (MySQL)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$J$30:$J$39</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>704.2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>53.8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>63.8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>138.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25.2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>335.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>21326.799999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>53.2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>52.2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$K$29</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NoSQL (HBase)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$K$30:$K$39</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>13780.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1030.8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2024.2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>67.400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>190.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>455.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>222.4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>212.2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="-1541274560"/>
-        <c:axId val="-1541271296"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="-1541274560"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="id-ID" sz="1600"/>
-                  <a:t>Nomor Antar</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="id-ID" sz="1600" baseline="0"/>
-                  <a:t> Muka</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="id-ID"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-1541271296"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-1541271296"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="id-ID" sz="1600"/>
-                  <a:t>Waktu Respon (ms)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="id-ID"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-1541274560"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="id-ID"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="id-ID"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
     <c:title>
       <c:layout/>
       <c:overlay val="0"/>
@@ -1181,7 +763,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$57</c:f>
+              <c:f>Sheet1!$E$58</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1216,7 +798,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$D$58:$D$62</c:f>
+              <c:f>Sheet1!$D$59:$D$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1240,7 +822,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$58:$E$62</c:f>
+              <c:f>Sheet1!$E$59:$E$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1269,7 +851,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$57</c:f>
+              <c:f>Sheet1!$F$58</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1304,7 +886,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$D$58:$D$62</c:f>
+              <c:f>Sheet1!$D$59:$D$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1328,7 +910,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$58:$F$62</c:f>
+              <c:f>Sheet1!$F$59:$F$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1357,7 +939,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$57</c:f>
+              <c:f>Sheet1!$G$58</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1392,7 +974,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$D$58:$D$62</c:f>
+              <c:f>Sheet1!$D$59:$D$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1416,7 +998,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$58:$G$62</c:f>
+              <c:f>Sheet1!$G$59:$G$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1450,11 +1032,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1541278368"/>
-        <c:axId val="-1541271840"/>
+        <c:axId val="728302752"/>
+        <c:axId val="728303840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1541278368"/>
+        <c:axId val="728302752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1553,7 +1135,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1541271840"/>
+        <c:crossAx val="728303840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1561,7 +1143,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1541271840"/>
+        <c:axId val="728303840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1673,7 +1255,3390 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1541278368"/>
+        <c:crossAx val="728302752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="id-ID"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SQL (MySQL)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$30:$J$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>704.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>138.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>335.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21326.799999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>53.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>52.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NoSQL (HBase)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$30:$K$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>13780.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1030.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2024.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>67.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>190.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>455.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>222.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>212.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3316.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="728308192"/>
+        <c:axId val="728308736"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="728308192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="id-ID"/>
+                  <a:t>Nomor Antar Muka</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="id-ID"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="728308736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="728308736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="id-ID"/>
+                  <a:t>Waktu</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="id-ID" baseline="0"/>
+                  <a:t> Respon (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="id-ID"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="id-ID"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="728308192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="id-ID"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="id-ID"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$110:$E$114</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>51.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>68.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>93.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70.400000000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="890514320"/>
+        <c:axId val="890520848"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="890514320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="id-ID"/>
+                  <a:t>Percobaan ke-</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="id-ID"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="890520848"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="890520848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="id-ID"/>
+                  <a:t>Persentase (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="id-ID"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="890514320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="id-ID"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="id-ID"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$110:$Q$114</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3264</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3385</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3374</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3271</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3491</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="890508336"/>
+        <c:axId val="890508880"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="890508336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="id-ID"/>
+                  <a:t>Percobaan ke-</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="id-ID"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="890508880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="890508880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="id-ID"/>
+                  <a:t>Memori (MB)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="id-ID"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="890508336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="id-ID"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="id-ID"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$D$127:$D$131</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$127:$E$131</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>69.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="965090672"/>
+        <c:axId val="965091216"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="965090672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="id-ID"/>
+                  <a:t>Jumlah Tabel</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="id-ID"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="965091216"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="965091216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="id-ID"/>
+                  <a:t>Persentase (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="id-ID"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="965090672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="id-ID"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="id-ID"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$P$127:$P$131</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$127:$Q$131</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3097</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3226</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3406</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3601</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="965051152"/>
+        <c:axId val="965051696"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="965051152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="id-ID"/>
+                  <a:t>Jumlah Tabel</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="id-ID"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="965051696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="965051696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="id-ID"/>
+                  <a:t>Memori</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="id-ID" baseline="0"/>
+                  <a:t> (MB)</a:t>
+                </a:r>
+                <a:endParaRPr lang="id-ID"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="id-ID"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="965051152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="id-ID"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$143</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>insert</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$144:$C$148</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$144:$D$148</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2598</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3098</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3171</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3204</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3147</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$143</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>update</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$144:$C$148</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$144:$E$148</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3248</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3198</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3291</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3334</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3225</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$143</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>delete</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$144:$C$148</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$144:$F$148</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2857</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3160</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3274</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3202</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="965089040"/>
+        <c:axId val="965093936"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="965089040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="id-ID"/>
+                  <a:t>Jumlah </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="id-ID" i="1"/>
+                  <a:t>Query</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="id-ID"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="965093936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="965093936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="id-ID"/>
+                  <a:t>Memori (MB)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="id-ID"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="965089040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="id-ID"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$160</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>insert</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$161:$C$165</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$161:$D$165</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>57.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>52.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$160</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>update</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$161:$C$165</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$161:$E$165</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>21.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$160</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>delete</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$161:$C$165</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$161:$F$165</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>57.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="890515952"/>
+        <c:axId val="890509424"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="890515952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="id-ID"/>
+                  <a:t>Jumlah </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="id-ID" i="1"/>
+                  <a:t>Query</a:t>
+                </a:r>
+                <a:endParaRPr lang="id-ID"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="id-ID"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="890509424"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="890509424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="id-ID"/>
+                  <a:t>Persentase (%) Processor</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="id-ID"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="890515952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1795,6 +4760,43 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1834,7 +4836,204 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
   <a:schemeClr val="accent6"/>
   <a:schemeClr val="accent5"/>
@@ -3380,6 +6579,3024 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3414,20 +9631,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>219076</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>484910</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="5" name="Chart 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3444,20 +9661,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>228599</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>22411</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>23531</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>358588</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>402290</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="6" name="Chart 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3467,6 +9684,186 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>1121</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>403412</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>77321</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>207307</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>543484</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>67236</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>34738</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>110938</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>173691</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>34738</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>509868</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>110938</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>521073</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>1121</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>229720</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>77321</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>576262</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>252412</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3738,10 +10135,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K62"/>
+  <dimension ref="A1:Q165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D51" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I59" sqref="I59"/>
+    <sheetView tabSelected="1" topLeftCell="B158" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C172" sqref="C172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3882,24 +10279,24 @@
     </row>
     <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="12"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="22"/>
     </row>
     <row r="29" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
       <c r="C29" s="4">
         <v>1</v>
       </c>
@@ -3951,7 +10348,10 @@
         <f>AVERAGE(C30:G30)</f>
         <v>704.2</v>
       </c>
-      <c r="J30">
+      <c r="I30" s="16">
+        <v>1</v>
+      </c>
+      <c r="J30" s="15">
         <v>704.2</v>
       </c>
       <c r="K30">
@@ -3981,13 +10381,16 @@
         <v>52</v>
       </c>
       <c r="H31" s="7">
-        <f t="shared" ref="H31:I39" si="0">AVERAGE(C31:G31)</f>
+        <f t="shared" ref="H31:H39" si="0">AVERAGE(C31:G31)</f>
         <v>53.8</v>
+      </c>
+      <c r="I31" s="16">
+        <v>2</v>
       </c>
       <c r="J31">
         <v>53.8</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="15">
         <v>50</v>
       </c>
     </row>
@@ -4017,7 +10420,10 @@
         <f t="shared" si="0"/>
         <v>63.8</v>
       </c>
-      <c r="J32">
+      <c r="I32" s="16">
+        <v>3</v>
+      </c>
+      <c r="J32" s="15">
         <v>63.8</v>
       </c>
       <c r="K32">
@@ -4050,7 +10456,10 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="J33">
+      <c r="I33" s="17">
+        <v>4</v>
+      </c>
+      <c r="J33" s="15">
         <v>22</v>
       </c>
       <c r="K33">
@@ -4083,7 +10492,10 @@
         <f t="shared" si="0"/>
         <v>138.4</v>
       </c>
-      <c r="J34">
+      <c r="I34" s="17">
+        <v>5</v>
+      </c>
+      <c r="J34" s="15">
         <v>138.4</v>
       </c>
       <c r="K34">
@@ -4116,7 +10528,10 @@
         <f t="shared" si="0"/>
         <v>25.2</v>
       </c>
-      <c r="J35">
+      <c r="I35" s="17">
+        <v>6</v>
+      </c>
+      <c r="J35" s="15">
         <v>25.2</v>
       </c>
       <c r="K35">
@@ -4149,10 +10564,13 @@
         <f t="shared" si="0"/>
         <v>335.6</v>
       </c>
+      <c r="I36" s="17">
+        <v>7</v>
+      </c>
       <c r="J36">
         <v>335.6</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="15">
         <v>190.8</v>
       </c>
     </row>
@@ -4182,10 +10600,13 @@
         <f t="shared" si="0"/>
         <v>21326.799999999999</v>
       </c>
+      <c r="I37" s="17">
+        <v>8</v>
+      </c>
       <c r="J37">
         <v>21326.799999999999</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="15">
         <v>455.8</v>
       </c>
     </row>
@@ -4215,7 +10636,10 @@
         <f t="shared" si="0"/>
         <v>53.2</v>
       </c>
-      <c r="J38">
+      <c r="I38" s="17">
+        <v>9</v>
+      </c>
+      <c r="J38" s="15">
         <v>53.2</v>
       </c>
       <c r="K38">
@@ -4248,401 +10672,1161 @@
         <f t="shared" si="0"/>
         <v>52.2</v>
       </c>
-      <c r="J39">
+      <c r="I39" s="17">
+        <v>10</v>
+      </c>
+      <c r="J39" s="15">
         <v>52.2</v>
       </c>
       <c r="K39">
         <v>212.2</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="8" t="s">
+    <row r="40" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="9">
+        <v>11</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H40" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I40" s="17">
+        <v>11</v>
+      </c>
+      <c r="J40">
+        <v>25000</v>
+      </c>
+      <c r="K40" s="15">
+        <v>3316.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B42" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C42" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="12"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="22"/>
     </row>
-    <row r="42" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="4">
+    <row r="43" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="19"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="4">
         <v>1</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D43" s="4">
         <v>2</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E43" s="4">
         <v>3</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F43" s="4">
         <v>4</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G43" s="4">
         <v>5</v>
       </c>
-      <c r="H42" s="5" t="s">
+      <c r="H43" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="6">
+    <row r="44" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="6">
         <v>1</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B44" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C43" s="13">
+      <c r="C44" s="8">
         <v>13873</v>
       </c>
-      <c r="D43" s="13">
+      <c r="D44" s="8">
         <v>13784</v>
       </c>
-      <c r="E43" s="13">
+      <c r="E44" s="8">
         <v>13711</v>
       </c>
-      <c r="F43" s="13">
+      <c r="F44" s="8">
         <v>13762</v>
       </c>
-      <c r="G43" s="13">
+      <c r="G44" s="8">
         <v>13772</v>
       </c>
-      <c r="H43" s="13">
-        <f>AVERAGE(C43:G43)</f>
+      <c r="H44" s="8">
+        <f>AVERAGE(C44:G44)</f>
         <v>13780.4</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="6">
+    <row r="45" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="6">
         <v>2</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B45" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C44" s="13">
+      <c r="C45" s="8">
         <v>52</v>
       </c>
-      <c r="D44" s="13">
+      <c r="D45" s="8">
         <v>46</v>
       </c>
-      <c r="E44" s="13">
+      <c r="E45" s="8">
         <v>52</v>
       </c>
-      <c r="F44" s="13">
+      <c r="F45" s="8">
         <v>50</v>
       </c>
-      <c r="G44" s="13">
+      <c r="G45" s="8">
         <v>50</v>
       </c>
-      <c r="H44" s="13">
-        <f t="shared" ref="H44:H52" si="1">AVERAGE(C44:G44)</f>
+      <c r="H45" s="8">
+        <f t="shared" ref="H45:H54" si="1">AVERAGE(C45:G45)</f>
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="6">
+    <row r="46" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="6">
         <v>3</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B46" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C45" s="13">
+      <c r="C46" s="8">
         <v>1148</v>
       </c>
-      <c r="D45" s="13">
+      <c r="D46" s="8">
         <v>1006</v>
       </c>
-      <c r="E45" s="13">
+      <c r="E46" s="8">
         <v>1004</v>
       </c>
-      <c r="F45" s="13">
+      <c r="F46" s="8">
         <v>998</v>
       </c>
-      <c r="G45" s="13">
+      <c r="G46" s="8">
         <v>998</v>
       </c>
-      <c r="H45" s="13">
+      <c r="H46" s="8">
         <f t="shared" si="1"/>
         <v>1030.8</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="6">
+    <row r="47" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="6">
         <v>4</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B47" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C46" s="13">
+      <c r="C47" s="8">
         <v>84</v>
       </c>
-      <c r="D46" s="13">
+      <c r="D47" s="8">
         <v>94</v>
       </c>
-      <c r="E46" s="13">
+      <c r="E47" s="8">
         <v>47</v>
       </c>
-      <c r="F46" s="13">
+      <c r="F47" s="8">
         <v>50</v>
       </c>
-      <c r="G46" s="13">
+      <c r="G47" s="8">
         <v>45</v>
       </c>
-      <c r="H46" s="13">
+      <c r="H47" s="8">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="6">
+    <row r="48" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="6">
         <v>5</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B48" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C47" s="13">
+      <c r="C48" s="8">
         <v>2031</v>
       </c>
-      <c r="D47" s="13">
+      <c r="D48" s="8">
         <v>1990</v>
       </c>
-      <c r="E47" s="13">
+      <c r="E48" s="8">
         <v>2058</v>
       </c>
-      <c r="F47" s="13">
+      <c r="F48" s="8">
         <v>2024</v>
       </c>
-      <c r="G47" s="13">
+      <c r="G48" s="8">
         <v>2018</v>
       </c>
-      <c r="H47" s="13">
+      <c r="H48" s="8">
         <f t="shared" si="1"/>
         <v>2024.2</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="6">
+    <row r="49" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="6">
         <v>6</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B49" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="13">
+      <c r="C49" s="8">
         <v>99</v>
       </c>
-      <c r="D48" s="13">
+      <c r="D49" s="8">
         <v>72</v>
       </c>
-      <c r="E48" s="13">
+      <c r="E49" s="8">
         <v>60</v>
       </c>
-      <c r="F48" s="13">
+      <c r="F49" s="8">
         <v>57</v>
       </c>
-      <c r="G48" s="13">
+      <c r="G49" s="8">
         <v>49</v>
       </c>
-      <c r="H48" s="13">
+      <c r="H49" s="8">
         <f t="shared" si="1"/>
         <v>67.400000000000006</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="6">
-        <v>7</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C49" s="13">
-        <v>228</v>
-      </c>
-      <c r="D49" s="13">
-        <v>207</v>
-      </c>
-      <c r="E49" s="13">
-        <v>180</v>
-      </c>
-      <c r="F49" s="13">
-        <v>158</v>
-      </c>
-      <c r="G49" s="13">
-        <v>181</v>
-      </c>
-      <c r="H49" s="13">
-        <f t="shared" si="1"/>
-        <v>190.8</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C50" s="13">
-        <v>480</v>
-      </c>
-      <c r="D50" s="13">
-        <v>455</v>
-      </c>
-      <c r="E50" s="13">
-        <v>451</v>
-      </c>
-      <c r="F50" s="13">
-        <v>449</v>
-      </c>
-      <c r="G50" s="13">
-        <v>444</v>
-      </c>
-      <c r="H50" s="13">
+        <v>28</v>
+      </c>
+      <c r="C50" s="8">
+        <v>228</v>
+      </c>
+      <c r="D50" s="8">
+        <v>207</v>
+      </c>
+      <c r="E50" s="8">
+        <v>180</v>
+      </c>
+      <c r="F50" s="8">
+        <v>158</v>
+      </c>
+      <c r="G50" s="8">
+        <v>181</v>
+      </c>
+      <c r="H50" s="8">
         <f t="shared" si="1"/>
-        <v>455.8</v>
+        <v>190.8</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C51" s="13">
-        <v>208</v>
-      </c>
-      <c r="D51" s="13">
-        <v>237</v>
-      </c>
-      <c r="E51" s="13">
-        <v>216</v>
-      </c>
-      <c r="F51" s="13">
-        <v>229</v>
-      </c>
-      <c r="G51" s="13">
-        <v>222</v>
-      </c>
-      <c r="H51" s="13">
+        <v>29</v>
+      </c>
+      <c r="C51" s="8">
+        <v>480</v>
+      </c>
+      <c r="D51" s="8">
+        <v>455</v>
+      </c>
+      <c r="E51" s="8">
+        <v>451</v>
+      </c>
+      <c r="F51" s="8">
+        <v>449</v>
+      </c>
+      <c r="G51" s="8">
+        <v>444</v>
+      </c>
+      <c r="H51" s="8">
         <f t="shared" si="1"/>
-        <v>222.4</v>
+        <v>455.8</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
+        <v>9</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C52" s="8">
+        <v>208</v>
+      </c>
+      <c r="D52" s="8">
+        <v>237</v>
+      </c>
+      <c r="E52" s="8">
+        <v>216</v>
+      </c>
+      <c r="F52" s="8">
+        <v>229</v>
+      </c>
+      <c r="G52" s="8">
+        <v>222</v>
+      </c>
+      <c r="H52" s="8">
+        <f t="shared" si="1"/>
+        <v>222.4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="6">
         <v>10</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B53" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="13">
+      <c r="C53" s="8">
         <v>211</v>
       </c>
-      <c r="D52" s="13">
+      <c r="D53" s="8">
         <v>207</v>
       </c>
-      <c r="E52" s="13">
+      <c r="E53" s="8">
         <v>216</v>
       </c>
-      <c r="F52" s="13">
+      <c r="F53" s="8">
         <v>212</v>
       </c>
-      <c r="G52" s="13">
+      <c r="G53" s="8">
         <v>215</v>
       </c>
-      <c r="H52" s="13">
+      <c r="H53" s="8">
         <f t="shared" si="1"/>
         <v>212.2</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E57" t="s">
-        <v>36</v>
-      </c>
-      <c r="F57" t="s">
-        <v>37</v>
-      </c>
-      <c r="G57" t="s">
-        <v>38</v>
+    <row r="54" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="9">
+        <v>11</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C54" s="10">
+        <v>3372</v>
+      </c>
+      <c r="D54" s="11">
+        <v>3367</v>
+      </c>
+      <c r="E54" s="11">
+        <v>3222</v>
+      </c>
+      <c r="F54" s="11">
+        <v>3302</v>
+      </c>
+      <c r="G54" s="11">
+        <v>3321</v>
+      </c>
+      <c r="H54" s="8">
+        <f t="shared" si="1"/>
+        <v>3316.8</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D58">
-        <v>1000</v>
-      </c>
-      <c r="E58" s="14">
-        <v>7.9130000000000003</v>
-      </c>
-      <c r="F58" s="14">
-        <v>41.304000000000002</v>
-      </c>
-      <c r="G58" s="14">
-        <v>8.2289999999999992</v>
+      <c r="E58" t="s">
+        <v>36</v>
+      </c>
+      <c r="F58" t="s">
+        <v>37</v>
+      </c>
+      <c r="G58" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D59">
-        <v>2000</v>
-      </c>
-      <c r="E59" s="6">
-        <v>10.63</v>
-      </c>
-      <c r="F59" s="6">
-        <v>75.05</v>
-      </c>
-      <c r="G59" s="6">
-        <v>11.423</v>
+        <v>1000</v>
+      </c>
+      <c r="E59" s="9">
+        <v>7.9130000000000003</v>
+      </c>
+      <c r="F59" s="9">
+        <v>41.304000000000002</v>
+      </c>
+      <c r="G59" s="9">
+        <v>8.2289999999999992</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D60">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="E60" s="6">
-        <v>13.021000000000001</v>
+        <v>10.63</v>
       </c>
       <c r="F60" s="6">
-        <v>107.77200000000001</v>
+        <v>75.05</v>
       </c>
       <c r="G60" s="6">
-        <v>15.029</v>
+        <v>11.423</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D61">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="E61" s="6">
-        <v>16.190000000000001</v>
+        <v>13.021000000000001</v>
       </c>
       <c r="F61" s="6">
-        <v>135.77099999999999</v>
+        <v>107.77200000000001</v>
       </c>
       <c r="G61" s="6">
-        <v>18.52</v>
+        <v>15.029</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D62">
+        <v>4000</v>
+      </c>
+      <c r="E62" s="6">
+        <v>16.190000000000001</v>
+      </c>
+      <c r="F62" s="6">
+        <v>135.77099999999999</v>
+      </c>
+      <c r="G62" s="6">
+        <v>18.52</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D63">
         <v>5000</v>
       </c>
-      <c r="E62" s="6">
+      <c r="E63" s="6">
         <v>18.908999999999999</v>
       </c>
-      <c r="F62" s="6">
+      <c r="F63" s="6">
         <v>162.90600000000001</v>
       </c>
-      <c r="G62" s="6">
+      <c r="G63" s="6">
         <v>22.25</v>
+      </c>
+    </row>
+    <row r="85" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D85" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="86" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D86">
+        <v>58</v>
+      </c>
+      <c r="E86">
+        <v>80</v>
+      </c>
+      <c r="G86">
+        <v>64</v>
+      </c>
+      <c r="H86">
+        <v>21</v>
+      </c>
+      <c r="I86">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D87">
+        <v>58</v>
+      </c>
+      <c r="E87">
+        <v>77</v>
+      </c>
+      <c r="G87">
+        <v>85</v>
+      </c>
+      <c r="H87">
+        <v>24</v>
+      </c>
+      <c r="I87">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D88">
+        <v>35</v>
+      </c>
+      <c r="E88">
+        <v>56</v>
+      </c>
+      <c r="G88">
+        <v>28</v>
+      </c>
+      <c r="H88">
+        <v>17</v>
+      </c>
+      <c r="I88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D89">
+        <v>56</v>
+      </c>
+      <c r="E89">
+        <v>64</v>
+      </c>
+      <c r="G89">
+        <v>53</v>
+      </c>
+      <c r="H89">
+        <v>21</v>
+      </c>
+      <c r="I89">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="90" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D90">
+        <v>69</v>
+      </c>
+      <c r="E90">
+        <v>55</v>
+      </c>
+      <c r="G90">
+        <v>63</v>
+      </c>
+      <c r="H90">
+        <v>18</v>
+      </c>
+      <c r="I90">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="91" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D91">
+        <v>71</v>
+      </c>
+      <c r="E91">
+        <v>67</v>
+      </c>
+      <c r="G91">
+        <v>54</v>
+      </c>
+      <c r="H91">
+        <v>14</v>
+      </c>
+      <c r="I91">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="92" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D92">
+        <v>55</v>
+      </c>
+      <c r="E92">
+        <v>70</v>
+      </c>
+      <c r="G92">
+        <v>60</v>
+      </c>
+      <c r="H92">
+        <v>11</v>
+      </c>
+      <c r="I92">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="93" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D93">
+        <v>49</v>
+      </c>
+      <c r="E93">
+        <v>67</v>
+      </c>
+      <c r="G93">
+        <v>68</v>
+      </c>
+      <c r="H93">
+        <v>18</v>
+      </c>
+      <c r="I93">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="94" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D94">
+        <v>71</v>
+      </c>
+      <c r="E94">
+        <v>70</v>
+      </c>
+      <c r="G94">
+        <v>52</v>
+      </c>
+      <c r="H94">
+        <v>19</v>
+      </c>
+      <c r="I94">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="95" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D95">
+        <v>59</v>
+      </c>
+      <c r="E95">
+        <v>63</v>
+      </c>
+      <c r="G95">
+        <v>59</v>
+      </c>
+      <c r="H95">
+        <v>23</v>
+      </c>
+      <c r="I95">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="96" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D96">
+        <v>69</v>
+      </c>
+      <c r="E96">
+        <v>60</v>
+      </c>
+      <c r="G96">
+        <v>38</v>
+      </c>
+      <c r="H96">
+        <v>17</v>
+      </c>
+      <c r="I96">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="97" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D97">
+        <v>74</v>
+      </c>
+      <c r="E97">
+        <v>61</v>
+      </c>
+      <c r="G97">
+        <v>35</v>
+      </c>
+      <c r="H97">
+        <v>24</v>
+      </c>
+      <c r="I97">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="98" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D98">
+        <v>96</v>
+      </c>
+      <c r="E98">
+        <v>61</v>
+      </c>
+      <c r="G98">
+        <v>52</v>
+      </c>
+      <c r="H98">
+        <v>30</v>
+      </c>
+      <c r="I98">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="99" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D99">
+        <v>94</v>
+      </c>
+      <c r="E99">
+        <v>63</v>
+      </c>
+      <c r="G99">
+        <v>54</v>
+      </c>
+      <c r="H99">
+        <v>18</v>
+      </c>
+      <c r="I99">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="100" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D100">
+        <v>91</v>
+      </c>
+      <c r="E100">
+        <v>52</v>
+      </c>
+      <c r="G100">
+        <v>40</v>
+      </c>
+      <c r="H100">
+        <v>18</v>
+      </c>
+      <c r="I100">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="101" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D101">
+        <v>91</v>
+      </c>
+      <c r="E101">
+        <v>53</v>
+      </c>
+      <c r="G101">
+        <v>51</v>
+      </c>
+      <c r="H101">
+        <v>29</v>
+      </c>
+      <c r="I101">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="102" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D102">
+        <v>65</v>
+      </c>
+      <c r="E102">
+        <v>40</v>
+      </c>
+      <c r="G102">
+        <v>61</v>
+      </c>
+      <c r="H102">
+        <v>13</v>
+      </c>
+      <c r="I102">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="103" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D103">
+        <v>80</v>
+      </c>
+      <c r="E103">
+        <v>44</v>
+      </c>
+      <c r="G103">
+        <v>54</v>
+      </c>
+      <c r="H103">
+        <v>19</v>
+      </c>
+      <c r="I103">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="104" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D104">
+        <v>71</v>
+      </c>
+      <c r="E104">
+        <v>50</v>
+      </c>
+      <c r="G104">
+        <v>54</v>
+      </c>
+      <c r="H104">
+        <v>14</v>
+      </c>
+      <c r="I104">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="105" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D105">
+        <v>64</v>
+      </c>
+      <c r="E105">
+        <v>30</v>
+      </c>
+      <c r="G105">
+        <v>41</v>
+      </c>
+      <c r="H105">
+        <v>13</v>
+      </c>
+      <c r="I105">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="106" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D106">
+        <f>AVERAGE(D86:D105)</f>
+        <v>68.8</v>
+      </c>
+      <c r="E106">
+        <f>AVERAGE(E86:E105)</f>
+        <v>59.15</v>
+      </c>
+      <c r="G106">
+        <f>AVERAGE(G86:G105)</f>
+        <v>53.3</v>
+      </c>
+      <c r="H106">
+        <f t="shared" ref="H106:I106" si="2">AVERAGE(H86:H105)</f>
+        <v>19.05</v>
+      </c>
+      <c r="I106">
+        <f t="shared" si="2"/>
+        <v>42.9</v>
+      </c>
+    </row>
+    <row r="108" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D108" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="109" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="E109" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="110" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="E110">
+        <v>51.9</v>
+      </c>
+      <c r="P110">
+        <v>1</v>
+      </c>
+      <c r="Q110">
+        <v>3264</v>
+      </c>
+    </row>
+    <row r="111" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D111">
+        <v>2</v>
+      </c>
+      <c r="E111">
+        <v>61.3</v>
+      </c>
+      <c r="P111">
+        <v>2</v>
+      </c>
+      <c r="Q111">
+        <v>3385</v>
+      </c>
+    </row>
+    <row r="112" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D112">
+        <v>3</v>
+      </c>
+      <c r="E112">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="P112">
+        <v>3</v>
+      </c>
+      <c r="Q112">
+        <v>3374</v>
+      </c>
+    </row>
+    <row r="113" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D113">
+        <v>4</v>
+      </c>
+      <c r="E113">
+        <v>93.4</v>
+      </c>
+      <c r="P113">
+        <v>4</v>
+      </c>
+      <c r="Q113">
+        <v>3271</v>
+      </c>
+    </row>
+    <row r="114" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D114">
+        <v>5</v>
+      </c>
+      <c r="E114">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="P114">
+        <v>5</v>
+      </c>
+      <c r="Q114">
+        <v>3491</v>
+      </c>
+    </row>
+    <row r="125" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D125" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="126" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="E126" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q126" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="127" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D127">
+        <v>3</v>
+      </c>
+      <c r="E127">
+        <v>69.5</v>
+      </c>
+      <c r="P127">
+        <v>3</v>
+      </c>
+      <c r="Q127">
+        <v>3097</v>
+      </c>
+    </row>
+    <row r="128" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D128">
+        <v>6</v>
+      </c>
+      <c r="E128">
+        <v>65.2</v>
+      </c>
+      <c r="P128">
+        <v>6</v>
+      </c>
+      <c r="Q128">
+        <v>3128</v>
+      </c>
+    </row>
+    <row r="129" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="D129">
+        <v>9</v>
+      </c>
+      <c r="E129">
+        <v>63.9</v>
+      </c>
+      <c r="P129">
+        <v>9</v>
+      </c>
+      <c r="Q129">
+        <v>3226</v>
+      </c>
+    </row>
+    <row r="130" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="D130">
+        <v>12</v>
+      </c>
+      <c r="E130">
+        <v>58</v>
+      </c>
+      <c r="P130">
+        <v>12</v>
+      </c>
+      <c r="Q130">
+        <v>3406</v>
+      </c>
+    </row>
+    <row r="131" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="D131">
+        <v>15</v>
+      </c>
+      <c r="E131">
+        <v>41.5</v>
+      </c>
+      <c r="P131">
+        <v>15</v>
+      </c>
+      <c r="Q131">
+        <v>3601</v>
+      </c>
+    </row>
+    <row r="143" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="D143" t="s">
+        <v>48</v>
+      </c>
+      <c r="E143" t="s">
+        <v>47</v>
+      </c>
+      <c r="F143" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="144" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C144">
+        <v>1000</v>
+      </c>
+      <c r="D144">
+        <v>2598</v>
+      </c>
+      <c r="E144">
+        <v>3248</v>
+      </c>
+      <c r="F144">
+        <v>2857</v>
+      </c>
+    </row>
+    <row r="145" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C145">
+        <v>2000</v>
+      </c>
+      <c r="D145">
+        <v>3098</v>
+      </c>
+      <c r="E145">
+        <v>3198</v>
+      </c>
+      <c r="F145">
+        <v>3160</v>
+      </c>
+    </row>
+    <row r="146" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C146">
+        <v>3000</v>
+      </c>
+      <c r="D146">
+        <v>3171</v>
+      </c>
+      <c r="E146">
+        <v>3291</v>
+      </c>
+      <c r="F146">
+        <v>3128</v>
+      </c>
+    </row>
+    <row r="147" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C147">
+        <v>4000</v>
+      </c>
+      <c r="D147">
+        <v>3204</v>
+      </c>
+      <c r="E147">
+        <v>3334</v>
+      </c>
+      <c r="F147">
+        <v>3274</v>
+      </c>
+    </row>
+    <row r="148" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C148">
+        <v>5000</v>
+      </c>
+      <c r="D148">
+        <v>3147</v>
+      </c>
+      <c r="E148">
+        <v>3225</v>
+      </c>
+      <c r="F148">
+        <v>3202</v>
+      </c>
+    </row>
+    <row r="160" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D160" t="s">
+        <v>48</v>
+      </c>
+      <c r="E160" t="s">
+        <v>47</v>
+      </c>
+      <c r="F160" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="161" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C161">
+        <v>1000</v>
+      </c>
+      <c r="D161">
+        <v>57.9</v>
+      </c>
+      <c r="E161">
+        <v>21.2</v>
+      </c>
+      <c r="F161">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="162" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C162">
+        <v>2000</v>
+      </c>
+      <c r="D162">
+        <v>61.6</v>
+      </c>
+      <c r="E162">
+        <v>15.6</v>
+      </c>
+      <c r="F162">
+        <v>53.4</v>
+      </c>
+    </row>
+    <row r="163" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C163">
+        <v>3000</v>
+      </c>
+      <c r="D163">
+        <v>46.5</v>
+      </c>
+      <c r="E163">
+        <v>20.9</v>
+      </c>
+      <c r="F163">
+        <v>49.4</v>
+      </c>
+    </row>
+    <row r="164" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C164">
+        <v>4000</v>
+      </c>
+      <c r="D164">
+        <v>49.4</v>
+      </c>
+      <c r="E164">
+        <v>24.1</v>
+      </c>
+      <c r="F164">
+        <v>42.1</v>
+      </c>
+    </row>
+    <row r="165" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C165">
+        <v>5000</v>
+      </c>
+      <c r="D165">
+        <v>52.8</v>
+      </c>
+      <c r="E165">
+        <v>15</v>
+      </c>
+      <c r="F165">
+        <v>57.5</v>
       </c>
     </row>
   </sheetData>
@@ -4650,9 +11834,9 @@
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="C28:H28"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:H42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Uji Coba/hasil.xlsx
+++ b/Uji Coba/hasil.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -338,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -398,6 +398,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,6 +461,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -553,11 +560,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="728300576"/>
-        <c:axId val="728301120"/>
+        <c:axId val="-1664634576"/>
+        <c:axId val="-1664633488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="728300576"/>
+        <c:axId val="-1664634576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -599,7 +606,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="728301120"/>
+        <c:crossAx val="-1664633488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -607,7 +614,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="728301120"/>
+        <c:axId val="-1664633488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -658,7 +665,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="728300576"/>
+        <c:crossAx val="-1664634576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1032,11 +1039,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="728302752"/>
-        <c:axId val="728303840"/>
+        <c:axId val="-1664640016"/>
+        <c:axId val="-1664634032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="728302752"/>
+        <c:axId val="-1664640016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1135,7 +1142,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="728303840"/>
+        <c:crossAx val="-1664634032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1143,7 +1150,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="728303840"/>
+        <c:axId val="-1664634032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1255,7 +1262,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="728302752"/>
+        <c:crossAx val="-1664640016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1530,11 +1537,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="728308192"/>
-        <c:axId val="728308736"/>
+        <c:axId val="-1664637840"/>
+        <c:axId val="-1446209440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="728308192"/>
+        <c:axId val="-1664637840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1632,7 +1639,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="728308736"/>
+        <c:crossAx val="-1446209440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1640,7 +1647,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="728308736"/>
+        <c:axId val="-1446209440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1752,7 +1759,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="728308192"/>
+        <c:crossAx val="-1664637840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1976,11 +1983,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="890514320"/>
-        <c:axId val="890520848"/>
+        <c:axId val="-1446212160"/>
+        <c:axId val="-1446211616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="890514320"/>
+        <c:axId val="-1446212160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2078,7 +2085,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="890520848"/>
+        <c:crossAx val="-1446211616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2086,7 +2093,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="890520848"/>
+        <c:axId val="-1446211616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2193,7 +2200,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="890514320"/>
+        <c:crossAx val="-1446212160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2385,11 +2392,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="890508336"/>
-        <c:axId val="890508880"/>
+        <c:axId val="-1446201824"/>
+        <c:axId val="-1446204544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="890508336"/>
+        <c:axId val="-1446201824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2487,7 +2494,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="890508880"/>
+        <c:crossAx val="-1446204544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2495,7 +2502,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="890508880"/>
+        <c:axId val="-1446204544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2602,7 +2609,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="890508336"/>
+        <c:crossAx val="-1446201824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2818,11 +2825,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="965090672"/>
-        <c:axId val="965091216"/>
+        <c:axId val="-1446215424"/>
+        <c:axId val="-1446205088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="965090672"/>
+        <c:axId val="-1446215424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2921,7 +2928,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="965091216"/>
+        <c:crossAx val="-1446205088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2929,7 +2936,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="965091216"/>
+        <c:axId val="-1446205088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3036,7 +3043,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="965090672"/>
+        <c:crossAx val="-1446215424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3252,11 +3259,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="965051152"/>
-        <c:axId val="965051696"/>
+        <c:axId val="-1446205632"/>
+        <c:axId val="-1446204000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="965051152"/>
+        <c:axId val="-1446205632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3355,7 +3362,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="965051696"/>
+        <c:crossAx val="-1446204000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3363,7 +3370,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="965051696"/>
+        <c:axId val="-1446204000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3475,7 +3482,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="965051152"/>
+        <c:crossAx val="-1446205632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3818,11 +3825,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="965089040"/>
-        <c:axId val="965093936"/>
+        <c:axId val="-1506481936"/>
+        <c:axId val="-1506478672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="965089040"/>
+        <c:axId val="-1506481936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3925,7 +3932,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="965093936"/>
+        <c:crossAx val="-1506478672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3933,7 +3940,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="965093936"/>
+        <c:axId val="-1506478672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4040,7 +4047,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="965089040"/>
+        <c:crossAx val="-1506481936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4415,11 +4422,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="890515952"/>
-        <c:axId val="890509424"/>
+        <c:axId val="-1506482480"/>
+        <c:axId val="-1506481392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="890515952"/>
+        <c:axId val="-1506482480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4523,7 +4530,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="890509424"/>
+        <c:crossAx val="-1506481392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4531,7 +4538,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="890509424"/>
+        <c:axId val="-1506481392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4638,7 +4645,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="890515952"/>
+        <c:crossAx val="-1506482480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10135,10 +10142,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q165"/>
+  <dimension ref="A1:Q194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B158" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C172" sqref="C172"/>
+    <sheetView tabSelected="1" topLeftCell="A182" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D186" sqref="D186:D194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11827,6 +11834,79 @@
       </c>
       <c r="F165">
         <v>57.5</v>
+      </c>
+    </row>
+    <row r="185" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="186" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C186">
+        <v>1</v>
+      </c>
+      <c r="D186" s="23">
+        <v>110.8</v>
+      </c>
+    </row>
+    <row r="187" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C187">
+        <v>2</v>
+      </c>
+      <c r="D187" s="24">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="188" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C188">
+        <v>3</v>
+      </c>
+      <c r="D188" s="24">
+        <v>268.39999999999998</v>
+      </c>
+    </row>
+    <row r="189" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C189">
+        <v>4</v>
+      </c>
+      <c r="D189" s="24">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="190" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C190">
+        <v>5</v>
+      </c>
+      <c r="D190" s="24">
+        <v>75.8</v>
+      </c>
+    </row>
+    <row r="191" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C191">
+        <v>6</v>
+      </c>
+      <c r="D191" s="24">
+        <v>78.400000000000006</v>
+      </c>
+    </row>
+    <row r="192" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C192">
+        <v>7</v>
+      </c>
+      <c r="D192" s="24">
+        <v>60.8</v>
+      </c>
+    </row>
+    <row r="193" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C193">
+        <v>8</v>
+      </c>
+      <c r="D193" s="24">
+        <v>151.19999999999999</v>
+      </c>
+    </row>
+    <row r="194" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C194">
+        <v>9</v>
+      </c>
+      <c r="D194" s="24">
+        <v>100.8</v>
       </c>
     </row>
   </sheetData>
